--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0AAA9C-97AD-004E-BCC7-0C04B0B93717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B61105-CB27-FC4B-A2B8-002CFD5D0CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13880" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="6" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="827">
   <si>
     <t>Screening</t>
   </si>
@@ -659,12 +659,6 @@
   </si>
   <si>
     <t>Treatment 3</t>
-  </si>
-  <si>
-    <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer\'s Disease, SNOMED: 26929004=Alzheimer\'s disease</t>
-  </si>
-  <si>
-    <t>Patients with Probable Mild to Moderate Alzheimer\'s Disease</t>
   </si>
   <si>
     <t>H2Q-MC-LZZT</t>
@@ -2532,12 +2526,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -2548,6 +2536,33 @@
   </si>
   <si>
     <t>plannedAge</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/maxValue</t>
+  </si>
+  <si>
+    <t>@label</t>
+  </si>
+  <si>
+    <t>max_age_2</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Subjects shall be between [min_age] and [max_age_2]</t>
+  </si>
+  <si>
+    <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer's Disease, SNOMED: 26929004=Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
   </si>
 </sst>
 </file>
@@ -3130,10 +3145,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3143,7 +3158,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3153,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3183,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -3223,7 +3238,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -3233,7 +3248,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -3251,7 +3266,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -3272,71 +3287,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
         <v>503</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>505</v>
-      </c>
-      <c r="E17" t="s">
-        <v>506</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" t="s">
         <v>507</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>508</v>
-      </c>
-      <c r="D18" t="s">
-        <v>509</v>
-      </c>
-      <c r="E18" t="s">
-        <v>510</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3367,13 +3382,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3381,7 +3396,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3395,13 +3410,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3411,38 +3426,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,10 +3484,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3514,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3533,7 +3548,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3543,7 +3558,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3605,10 +3620,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3794,22 +3809,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3817,7 +3832,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3829,22 +3844,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3854,56 +3869,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3920,10 +3935,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3932,10 +3947,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3944,10 +3959,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3956,10 +3971,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4113,632 +4128,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>531</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4767,19 +4782,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4807,18 +4822,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4853,10 +4868,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4906,7 +4921,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4916,10 +4931,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,39 +4969,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C34" t="s">
         <v>743</v>
-      </c>
-      <c r="C34" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C35" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C36" t="s">
         <v>744</v>
-      </c>
-      <c r="C36" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C37" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -5028,179 +5043,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>783</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>784</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2" t="s">
         <v>786</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>787</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>788</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="49" t="s">
         <v>789</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>790</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" t="s">
         <v>791</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>792</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>793</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>794</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>795</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>796</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>797</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>798</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>799</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>519</v>
+      </c>
+      <c r="R2" t="s">
         <v>800</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="50" t="s">
         <v>801</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>521</v>
-      </c>
-      <c r="R2" t="s">
-        <v>802</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C3" t="s">
         <v>804</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E3" t="s">
         <v>805</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="G3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H3" t="s">
         <v>806</v>
       </c>
-      <c r="D3" t="s">
-        <v>789</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>792</v>
+      </c>
+      <c r="J3" t="s">
         <v>807</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>791</v>
-      </c>
-      <c r="G3" t="s">
-        <v>792</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>808</v>
       </c>
-      <c r="I3" t="s">
-        <v>794</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>809</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>796</v>
+      </c>
+      <c r="N3" t="s">
+        <v>797</v>
+      </c>
+      <c r="O3" t="s">
+        <v>798</v>
+      </c>
+      <c r="P3" t="s">
         <v>810</v>
       </c>
-      <c r="L3" t="s">
-        <v>811</v>
-      </c>
-      <c r="M3" t="s">
-        <v>798</v>
-      </c>
-      <c r="N3" t="s">
-        <v>799</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>519</v>
+      </c>
+      <c r="R3" t="s">
         <v>800</v>
       </c>
-      <c r="P3" t="s">
-        <v>812</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>521</v>
-      </c>
-      <c r="R3" t="s">
-        <v>802</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -5225,13 +5240,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5242,27 +5257,27 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="C2" t="s">
-        <v>767</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>769</v>
-      </c>
-      <c r="C3" t="s">
-        <v>770</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -5276,7 +5291,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5293,39 +5308,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>201</v>
+        <v>826</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5334,7 +5349,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5371,34 +5386,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>603</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>605</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>604</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>606</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5411,11 +5426,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>47</v>
@@ -5425,7 +5440,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5442,7 +5457,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5457,10 +5472,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>47</v>
@@ -5501,10 +5516,10 @@
         <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -5519,11 +5534,11 @@
         <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
@@ -5533,7 +5548,7 @@
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
@@ -5549,7 +5564,7 @@
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
@@ -5830,13 +5845,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>88</v>
@@ -5872,25 +5887,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -5919,22 +5934,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>517</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>518</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5942,19 +5957,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>523</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -5984,22 +5999,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>95</v>
@@ -6031,7 +6046,7 @@
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6151,7 +6166,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>99</v>
@@ -6160,7 +6175,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6180,7 +6195,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6200,7 +6215,7 @@
         <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6220,7 +6235,7 @@
         <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6292,13 +6307,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>95</v>
@@ -6360,7 +6375,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>180</v>
@@ -6374,7 +6389,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>186</v>
@@ -6388,7 +6403,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>188</v>
@@ -6402,7 +6417,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>190</v>
@@ -6419,10 +6434,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6437,99 +6452,113 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" t="s">
         <v>595</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>596</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>597</v>
       </c>
-      <c r="E2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F2" t="s">
-        <v>599</v>
-      </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G3" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B6" t="s">
         <v>696</v>
       </c>
-      <c r="E4" t="s">
-        <v>598</v>
-      </c>
-      <c r="F4" t="s">
-        <v>599</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>697</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>698</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" t="s">
         <v>699</v>
       </c>
-      <c r="D5" t="s">
-        <v>700</v>
-      </c>
-      <c r="E5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" t="s">
-        <v>701</v>
-      </c>
-      <c r="G5" t="s">
-        <v>500</v>
+      <c r="G6" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -6541,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6555,1251 +6584,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7840,7 +7869,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7848,7 +7877,7 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7905,27 +7934,27 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" t="s">
         <v>524</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>525</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>526</v>
-      </c>
-      <c r="D3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7941,8 +7970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7982,7 +8011,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>200</v>
+        <v>825</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -8030,7 +8059,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -8066,7 +8095,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
@@ -8097,12 +8126,12 @@
         <v>199</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>115</v>
@@ -8142,7 +8171,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>115</v>
@@ -8181,10 +8210,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8200,102 +8229,122 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>589</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>706</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>705</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>710</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>717</v>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -8322,22 +8371,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8351,13 +8400,13 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8365,39 +8414,39 @@
         <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8423,13 +8472,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8437,16 +8486,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8454,10 +8503,10 @@
         <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>133</v>
@@ -8468,10 +8517,10 @@
         <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
@@ -8482,10 +8531,10 @@
         <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>133</v>
@@ -8493,16 +8542,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8546,55 +8595,55 @@
         <v>83</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>628</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8664,16 +8713,16 @@
         <v>87</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>141</v>
@@ -8685,28 +8734,28 @@
         <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>154</v>
@@ -8722,121 +8771,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>630</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8884,14 +8933,14 @@
         <v>199</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>97</v>
@@ -9176,7 +9225,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9231,7 +9280,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9616,10 +9665,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9896,7 +9945,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10063,7 +10112,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10172,7 +10221,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10230,7 +10279,7 @@
         <v>168</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10284,7 +10333,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11078,13 +11127,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -11092,7 +11141,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11106,13 +11155,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11122,38 +11171,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11173,7 +11222,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>

--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B61105-CB27-FC4B-A2B8-002CFD5D0CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC8E82-F77B-E142-9A8E-4EEE4939D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="6" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13880" yWindow="520" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2134,18 +2134,6 @@
     <t>Screen One</t>
   </si>
   <si>
-    <t>&lt;usdm:section name="M11-title-page"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-inclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-exclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
-  </si>
-  <si>
     <t>StudyPopulation</t>
   </si>
   <si>
@@ -2563,6 +2551,18 @@
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="title_page" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="objective_endpoints" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="inclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2804,13 +2804,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3313,7 +3313,7 @@
         <v>501</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C17" t="s">
         <v>502</v>
@@ -3336,7 +3336,7 @@
         <v>505</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C18" t="s">
         <v>506</v>
@@ -3809,22 +3809,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3844,22 +3844,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3888,13 +3888,13 @@
         <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>675</v>
@@ -3935,10 +3935,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3947,10 +3947,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3959,10 +3959,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3971,10 +3971,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4651,50 +4651,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>536</v>
@@ -4703,57 +4703,57 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4822,18 +4822,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4974,34 +4974,34 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C34" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C35" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C36" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C37" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -5055,167 +5055,167 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>779</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>781</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>782</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2" t="s">
         <v>784</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="49" t="s">
         <v>785</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>786</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>787</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>788</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="J2" t="s">
         <v>789</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>790</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>791</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>792</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>793</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>794</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>795</v>
-      </c>
-      <c r="M2" t="s">
-        <v>796</v>
-      </c>
-      <c r="N2" t="s">
-        <v>797</v>
-      </c>
-      <c r="O2" t="s">
-        <v>798</v>
-      </c>
-      <c r="P2" t="s">
-        <v>799</v>
       </c>
       <c r="Q2" t="s">
         <v>519</v>
       </c>
       <c r="R2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D3" t="s">
+        <v>783</v>
+      </c>
+      <c r="E3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>785</v>
+      </c>
+      <c r="G3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H3" t="s">
         <v>802</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>788</v>
+      </c>
+      <c r="J3" t="s">
         <v>803</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>804</v>
       </c>
-      <c r="D3" t="s">
-        <v>787</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>805</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>789</v>
-      </c>
-      <c r="G3" t="s">
-        <v>790</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>792</v>
+      </c>
+      <c r="N3" t="s">
+        <v>793</v>
+      </c>
+      <c r="O3" t="s">
+        <v>794</v>
+      </c>
+      <c r="P3" t="s">
         <v>806</v>
-      </c>
-      <c r="I3" t="s">
-        <v>792</v>
-      </c>
-      <c r="J3" t="s">
-        <v>807</v>
-      </c>
-      <c r="K3" t="s">
-        <v>808</v>
-      </c>
-      <c r="L3" t="s">
-        <v>809</v>
-      </c>
-      <c r="M3" t="s">
-        <v>796</v>
-      </c>
-      <c r="N3" t="s">
-        <v>797</v>
-      </c>
-      <c r="O3" t="s">
-        <v>798</v>
-      </c>
-      <c r="P3" t="s">
-        <v>810</v>
       </c>
       <c r="Q3" t="s">
         <v>519</v>
       </c>
       <c r="R3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -5257,13 +5257,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5271,13 +5271,13 @@
         <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5308,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>223</v>
@@ -5320,13 +5320,13 @@
         <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>813</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>817</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>597</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5349,7 +5349,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5887,25 +5887,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -5969,7 +5969,7 @@
         <v>521</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -6493,7 +6493,7 @@
         <v>597</v>
       </c>
       <c r="G2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6507,12 +6507,12 @@
         <v>597</v>
       </c>
       <c r="G3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E4" t="s">
         <v>596</v>
@@ -6521,12 +6521,12 @@
         <v>597</v>
       </c>
       <c r="G4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E5" t="s">
         <v>596</v>
@@ -6540,25 +6540,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E6" t="s">
         <v>567</v>
       </c>
       <c r="F6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G6" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -6570,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6605,7 +6605,7 @@
         <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>690</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6681,7 +6681,7 @@
         <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>693</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6718,7 +6718,7 @@
         <v>249</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -6730,7 +6730,7 @@
         <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6778,7 +6778,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>262</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>263</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6808,7 +6808,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>691</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>692</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6850,7 +6850,7 @@
         <v>275</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7986,120 +7986,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>825</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="B3" s="52" t="s">
+        <v>821</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>683</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>718</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="53" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8191,16 +8191,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8275,16 +8275,16 @@
         <v>584</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>589</v>
@@ -8295,36 +8295,36 @@
         <v>584</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>714</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>717</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8332,7 +8332,7 @@
         <v>584</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>586</v>
@@ -8341,7 +8341,7 @@
         <v>587</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>589</v>
@@ -9225,7 +9225,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9280,7 +9280,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9668,7 +9668,7 @@
         <v>635</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9945,7 +9945,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -11852,17 +11852,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12063,6 +12052,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
@@ -12072,23 +12072,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12105,4 +12088,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC8E82-F77B-E142-9A8E-4EEE4939D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE5FC31-FAD0-1D47-A701-CDB33EED6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="520" windowWidth="34040" windowHeight="27240" firstSheet="14" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="9" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="826">
   <si>
     <t>Screening</t>
   </si>
@@ -2436,18 +2436,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -2487,12 +2481,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2563,6 +2551,15 @@
   </si>
   <si>
     <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2804,13 +2801,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4727,7 +4724,7 @@
         <v>747</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5013,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5114,108 +5111,108 @@
         <v>783</v>
       </c>
       <c r="E2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" t="s">
         <v>785</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I2" t="s">
         <v>786</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>787</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>788</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>789</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>790</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>791</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>792</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>793</v>
-      </c>
-      <c r="O2" t="s">
-        <v>794</v>
-      </c>
-      <c r="P2" t="s">
-        <v>795</v>
       </c>
       <c r="Q2" t="s">
         <v>519</v>
       </c>
       <c r="R2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C3" t="s">
         <v>798</v>
-      </c>
-      <c r="B3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C3" t="s">
-        <v>800</v>
       </c>
       <c r="D3" t="s">
         <v>783</v>
       </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="G3" t="s">
+        <v>785</v>
+      </c>
+      <c r="H3" t="s">
+        <v>825</v>
+      </c>
+      <c r="I3" t="s">
+        <v>786</v>
+      </c>
+      <c r="J3" t="s">
+        <v>799</v>
+      </c>
+      <c r="K3" t="s">
+        <v>800</v>
+      </c>
+      <c r="L3" t="s">
         <v>801</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>785</v>
-      </c>
-      <c r="G3" t="s">
-        <v>786</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>790</v>
+      </c>
+      <c r="N3" t="s">
+        <v>791</v>
+      </c>
+      <c r="O3" t="s">
+        <v>792</v>
+      </c>
+      <c r="P3" t="s">
         <v>802</v>
-      </c>
-      <c r="I3" t="s">
-        <v>788</v>
-      </c>
-      <c r="J3" t="s">
-        <v>803</v>
-      </c>
-      <c r="K3" t="s">
-        <v>804</v>
-      </c>
-      <c r="L3" t="s">
-        <v>805</v>
-      </c>
-      <c r="M3" t="s">
-        <v>792</v>
-      </c>
-      <c r="N3" t="s">
-        <v>793</v>
-      </c>
-      <c r="O3" t="s">
-        <v>794</v>
-      </c>
-      <c r="P3" t="s">
-        <v>806</v>
       </c>
       <c r="Q3" t="s">
         <v>519</v>
       </c>
       <c r="R3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +5305,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>223</v>
@@ -5320,13 +5317,13 @@
         <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>809</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>813</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5334,13 +5331,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>597</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5349,7 +5346,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -6493,7 +6490,7 @@
         <v>597</v>
       </c>
       <c r="G2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6507,12 +6504,12 @@
         <v>597</v>
       </c>
       <c r="G3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E4" t="s">
         <v>596</v>
@@ -6521,7 +6518,7 @@
         <v>597</v>
       </c>
       <c r="G4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6558,7 +6555,7 @@
         <v>695</v>
       </c>
       <c r="G6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6605,7 +6602,7 @@
         <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6681,7 +6678,7 @@
         <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6808,7 +6805,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6820,7 +6817,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7986,120 +7983,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>821</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="53" t="s">
+        <v>817</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>683</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>714</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8191,16 +8188,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8332,7 +8329,7 @@
         <v>584</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>586</v>
@@ -8341,7 +8338,7 @@
         <v>587</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>589</v>
@@ -11843,15 +11840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12052,6 +12040,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12064,14 +12061,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12086,6 +12075,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE5FC31-FAD0-1D47-A701-CDB33EED6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBAE4BD-6ECD-3C49-AF45-13E8D4C7A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="9" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -202,12 +202,6 @@
     <t>Primary Endpoint</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Secondary Endpoint</t>
   </si>
   <si>
@@ -2560,6 +2554,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2801,13 +2801,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2827,9 +2827,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2867,7 +2867,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2973,7 +2973,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3115,7 +3115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3142,10 +3142,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3155,7 +3155,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3165,7 +3165,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3185,74 +3185,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="41"/>
@@ -3260,20 +3260,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -3284,71 +3284,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="C17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" t="s">
         <v>501</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>502</v>
-      </c>
-      <c r="D17" t="s">
-        <v>503</v>
-      </c>
-      <c r="E17" t="s">
-        <v>504</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="C18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" t="s">
         <v>505</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>506</v>
-      </c>
-      <c r="D18" t="s">
-        <v>507</v>
-      </c>
-      <c r="E18" t="s">
-        <v>508</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3376,24 +3376,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3423,38 +3423,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3481,10 +3481,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3526,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3535,7 +3535,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3545,7 +3545,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3555,7 +3555,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3565,7 +3565,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3587,7 +3587,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3597,7 +3597,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3607,7 +3607,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3617,10 +3617,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3803,33 +3803,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3838,25 +3838,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3866,56 +3866,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3926,16 +3926,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3944,10 +3944,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3956,10 +3956,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3968,10 +3968,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4125,632 +4125,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>529</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4779,19 +4779,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4819,18 +4819,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4845,40 +4845,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4888,12 +4888,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4913,50 +4913,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4966,39 +4966,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C34" t="s">
         <v>737</v>
-      </c>
-      <c r="C34" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C35" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C36" t="s">
         <v>738</v>
-      </c>
-      <c r="C36" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C37" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -5010,7 +5010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -5040,179 +5040,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>777</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>778</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" t="s">
         <v>780</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>781</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>783</v>
       </c>
-      <c r="E2" t="s">
-        <v>823</v>
-      </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I2" t="s">
         <v>784</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>785</v>
       </c>
-      <c r="H2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>786</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>787</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>788</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>789</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>790</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>791</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>517</v>
+      </c>
+      <c r="R2" t="s">
         <v>792</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="50" t="s">
         <v>793</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>519</v>
-      </c>
-      <c r="R2" t="s">
-        <v>794</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C3" t="s">
         <v>796</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="G3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H3" t="s">
+        <v>823</v>
+      </c>
+      <c r="I3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J3" t="s">
         <v>797</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>798</v>
       </c>
-      <c r="D3" t="s">
-        <v>783</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="G3" t="s">
-        <v>785</v>
-      </c>
-      <c r="H3" t="s">
-        <v>825</v>
-      </c>
-      <c r="I3" t="s">
-        <v>786</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>799</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>788</v>
+      </c>
+      <c r="N3" t="s">
+        <v>789</v>
+      </c>
+      <c r="O3" t="s">
+        <v>790</v>
+      </c>
+      <c r="P3" t="s">
         <v>800</v>
       </c>
-      <c r="L3" t="s">
-        <v>801</v>
-      </c>
-      <c r="M3" t="s">
-        <v>790</v>
-      </c>
-      <c r="N3" t="s">
-        <v>791</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>517</v>
+      </c>
+      <c r="R3" t="s">
         <v>792</v>
       </c>
-      <c r="P3" t="s">
-        <v>802</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>519</v>
-      </c>
-      <c r="R3" t="s">
-        <v>794</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -5237,13 +5237,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5251,30 +5251,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>760</v>
-      </c>
-      <c r="C2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="C3" t="s">
-        <v>764</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -5305,25 +5305,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5331,13 +5331,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5346,7 +5346,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5362,8 +5362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5383,34 +5383,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>601</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>603</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5420,24 +5420,24 @@
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>47</v>
+        <v>824</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5450,11 +5450,11 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5466,19 +5466,19 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>10</v>
@@ -5494,10 +5494,10 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
@@ -5510,13 +5510,13 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -5528,28 +5528,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>825</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5557,15 +5557,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -5573,14 +5573,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -5790,28 +5790,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5842,67 +5842,67 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -5931,22 +5931,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>515</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>516</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5954,19 +5954,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>521</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -5996,286 +5996,286 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6304,27 +6304,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6333,94 +6333,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6449,87 +6449,87 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>590</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" t="s">
         <v>593</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>594</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>595</v>
       </c>
-      <c r="E2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F2" t="s">
-        <v>597</v>
-      </c>
       <c r="G2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -6537,25 +6537,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>689</v>
+      </c>
+      <c r="B6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C6" t="s">
         <v>691</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>692</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>565</v>
+      </c>
+      <c r="F6" t="s">
         <v>693</v>
       </c>
-      <c r="D6" t="s">
-        <v>694</v>
-      </c>
-      <c r="E6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" t="s">
-        <v>695</v>
-      </c>
       <c r="G6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -6581,1251 +6581,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -7847,34 +7847,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7922,36 +7922,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" t="s">
         <v>522</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>523</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>524</v>
-      </c>
-      <c r="D3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7981,122 +7981,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+        <v>120</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+        <v>122</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>817</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="B3" s="52" t="s">
+        <v>815</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>683</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+        <v>78</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>714</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8108,96 +8108,96 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>121</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8226,122 +8226,122 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>587</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>700</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>704</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>709</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>710</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>815</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>586</v>
-      </c>
       <c r="D6" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>587</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -8368,82 +8368,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8469,13 +8469,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8483,72 +8483,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8586,69 +8586,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>626</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -8704,61 +8704,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -8768,121 +8768,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>628</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8891,101 +8891,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -8996,7 +8996,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9112,7 +9112,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -9222,7 +9222,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9277,7 +9277,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9442,7 +9442,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -9497,7 +9497,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -9552,7 +9552,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -9607,7 +9607,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -9662,10 +9662,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9719,7 +9719,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -9774,7 +9774,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -9884,7 +9884,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -9939,10 +9939,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10109,7 +10109,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10163,7 +10163,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -10218,7 +10218,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10273,10 +10273,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10330,7 +10330,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10385,7 +10385,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -10442,7 +10442,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -10497,7 +10497,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -10552,7 +10552,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -10607,7 +10607,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -11121,24 +11121,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11149,16 +11149,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11168,38 +11168,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11210,7 +11210,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -11219,7 +11219,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -11840,6 +11840,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12040,15 +12049,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12061,6 +12061,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12075,14 +12083,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBAE4BD-6ECD-3C49-AF45-13E8D4C7A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E33EB7-F265-9B46-B20E-FC9908893F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51940" yWindow="500" windowWidth="34040" windowHeight="27240" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13060" yWindow="500" windowWidth="48440" windowHeight="27240" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="827">
   <si>
     <t>Screening</t>
   </si>
@@ -2560,6 +2560,9 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>Age Criteria 2</t>
   </si>
 </sst>
 </file>
@@ -2801,13 +2804,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5362,7 +5365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7983,120 +7986,120 @@
       <c r="A1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8188,16 +8191,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8209,8 +8212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8332,7 +8335,7 @@
         <v>813</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>584</v>
+        <v>826</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>585</v>
@@ -11840,15 +11843,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12049,6 +12043,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12061,14 +12064,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12083,6 +12078,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E33EB7-F265-9B46-B20E-FC9908893F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8812A2-F780-6341-91B9-610E03FCA903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="500" windowWidth="48440" windowHeight="27240" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13060" yWindow="500" windowWidth="48440" windowHeight="27240" firstSheet="1" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="827">
   <si>
     <t>Screening</t>
   </si>
@@ -2804,13 +2804,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3365,7 +3365,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3576,9 +3576,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>168</v>
       </c>
@@ -3792,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7986,120 +7984,120 @@
       <c r="A1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8191,16 +8189,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8212,7 +8210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8564,7 +8562,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10441,9 +10439,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
         <v>168</v>
       </c>
@@ -11843,6 +11839,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12043,15 +12048,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12064,6 +12060,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12078,14 +12082,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8812A2-F780-6341-91B9-610E03FCA903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5AF6DF-E7AA-A14D-AFDD-BACF0595CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="500" windowWidth="48440" windowHeight="27240" firstSheet="1" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13060" yWindow="500" windowWidth="48440" windowHeight="27240" firstSheet="4" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="829">
   <si>
     <t>Screening</t>
   </si>
@@ -2564,12 +2564,18 @@
   <si>
     <t>Age Criteria 2</t>
   </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2602,14 +2608,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2665,7 +2663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2694,10 +2692,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2732,7 +2726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2750,7 +2744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2792,25 +2786,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3144,175 +3138,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="12"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="40" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>755</v>
       </c>
       <c r="C17" t="s">
@@ -3324,7 +3318,7 @@
       <c r="E17" t="s">
         <v>502</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="41">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
@@ -3332,10 +3326,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>756</v>
       </c>
       <c r="C18" t="s">
@@ -3347,7 +3341,7 @@
       <c r="E18" t="s">
         <v>506</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="41">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
@@ -3378,13 +3372,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3392,13 +3386,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3406,13 +3400,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3420,9 +3414,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3430,9 +3424,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
         <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3440,34 +3434,34 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3486,7 +3480,7 @@
       <c r="B11" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3524,11 +3518,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>627</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3790,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3803,13 +3797,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3826,25 +3820,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3861,9 +3855,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3880,9 +3874,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
         <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3899,34 +3893,34 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3947,7 +3941,7 @@
       <c r="B11" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>715</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3971,7 +3965,7 @@
       <c r="B13" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>715</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4116,40 +4110,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="41" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="10" style="39" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="39" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="41" customWidth="1"/>
+    <col min="6" max="9" width="13.5" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>528</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>529</v>
       </c>
     </row>
@@ -4601,7 +4595,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>578</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4625,13 +4619,13 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>676</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -4774,24 +4768,24 @@
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="18" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>631</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>632</v>
       </c>
     </row>
@@ -5040,61 +5034,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>767</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>776</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>777</v>
       </c>
     </row>
@@ -5114,7 +5108,7 @@
       <c r="E2" t="s">
         <v>821</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="47" t="s">
         <v>782</v>
       </c>
       <c r="G2" t="s">
@@ -5153,7 +5147,7 @@
       <c r="R2" t="s">
         <v>792</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="48" t="s">
         <v>793</v>
       </c>
     </row>
@@ -5173,7 +5167,7 @@
       <c r="E3" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="47" t="s">
         <v>782</v>
       </c>
       <c r="G3" t="s">
@@ -5212,7 +5206,7 @@
       <c r="R3" t="s">
         <v>792</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="48" t="s">
         <v>793</v>
       </c>
     </row>
@@ -5237,16 +5231,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5305,28 +5299,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>803</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>807</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5334,10 +5328,10 @@
       <c r="A2" t="s">
         <v>804</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>816</v>
       </c>
       <c r="E2" s="3">
@@ -5369,79 +5363,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15" style="14" customWidth="1"/>
-    <col min="4" max="4" width="55" style="14" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="14" customWidth="1"/>
-    <col min="10" max="11" width="31.5" style="14" customWidth="1"/>
-    <col min="12" max="15" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="14.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15" style="12" customWidth="1"/>
+    <col min="4" max="4" width="55" style="12" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="12" customWidth="1"/>
+    <col min="10" max="11" width="31.5" style="12" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="6"/>
@@ -5449,16 +5443,16 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="D3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="14"/>
+      <c r="F3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="M3" s="6"/>
@@ -5466,26 +5460,26 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="12" t="s">
         <v>46</v>
       </c>
       <c r="M4" s="6"/>
@@ -5493,15 +5487,15 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="D5" s="16"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="6"/>
@@ -5509,18 +5503,18 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
-      <c r="D6" s="16"/>
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="14"/>
+      <c r="F6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="6"/>
@@ -5528,28 +5522,28 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="12" t="s">
         <v>47</v>
       </c>
       <c r="M7" s="6"/>
@@ -5557,15 +5551,15 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="6"/>
@@ -5573,14 +5567,14 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="12" t="s">
         <v>47</v>
       </c>
       <c r="M9" s="6"/>
@@ -5773,10 +5767,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5789,30 +5783,36 @@
     <col min="7" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>49</v>
+      <c r="J1" s="19" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -5835,53 +5835,53 @@
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="24" style="20" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="24" style="18" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>195</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -5890,7 +5890,7 @@
       <c r="B3" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>741</v>
       </c>
     </row>
@@ -5902,7 +5902,7 @@
         <v>744</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>742</v>
       </c>
     </row>
@@ -5931,22 +5931,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="43" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5954,19 +5954,19 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>757</v>
       </c>
     </row>
@@ -5996,28 +5996,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6304,19 +6304,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6344,10 +6344,10 @@
       <c r="B3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       <c r="C4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="44" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6386,10 +6386,10 @@
       <c r="B6" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>610</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="44" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6400,10 +6400,10 @@
       <c r="B7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>611</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6417,10 +6417,10 @@
       <c r="C8" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6449,25 +6449,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>590</v>
       </c>
     </row>
@@ -6574,31 +6574,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="24" style="6" customWidth="1"/>
     <col min="4" max="4" width="115.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="6" t="s">
         <v>494</v>
       </c>
@@ -6607,16 +6607,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -6624,7 +6624,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6632,7 +6632,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -6640,7 +6640,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>232</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -6648,7 +6648,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>234</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -6656,7 +6656,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -6664,7 +6664,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>238</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -6672,7 +6672,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>490</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6683,7 +6683,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -6691,7 +6691,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -6699,19 +6699,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="6" t="s">
         <v>247</v>
       </c>
@@ -6720,10 +6720,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="6" t="s">
         <v>249</v>
       </c>
@@ -6732,55 +6732,55 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="6" t="s">
         <v>261</v>
       </c>
@@ -6789,19 +6789,19 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="6" t="s">
         <v>265</v>
       </c>
@@ -6810,10 +6810,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="6" t="s">
         <v>267</v>
       </c>
@@ -6822,28 +6822,28 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="6" t="s">
         <v>273</v>
       </c>
@@ -6852,154 +6852,154 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="6" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6" t="s">
         <v>307</v>
       </c>
@@ -7008,824 +7008,824 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="6" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="6" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B49" s="39"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="6" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="6" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B51" s="39"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="6" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B52" s="39"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="6" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B53" s="39"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B54" s="39"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="6" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B55" s="39"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="6" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B56" s="39"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="6" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="B57" s="39"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="6" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="6" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B60" s="39"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B62" s="39"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B63" s="39"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="B64" s="39"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="6" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="6" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="B66" s="39"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="6" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B67" s="39"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="6" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B68" s="39"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B69" s="39"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B70" s="39"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="6" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B71" s="39"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="6" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B72" s="39"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="6" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B73" s="39"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="6" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="B74" s="39"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="6" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B75" s="39"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="6" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="B76" s="39"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="6" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B77" s="39"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="6" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B78" s="39"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="6" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B79" s="39"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="6" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B80" s="39"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="6" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="6" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B82" s="39"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="6" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B83" s="39"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="6" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="B84" s="39"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="6" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="B85" s="39"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="6" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="B86" s="39"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="6" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="B87" s="39"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="6" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B88" s="39"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="6" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="B89" s="39"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="6" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B90" s="39"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="6" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B91" s="39"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="6" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B92" s="39"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="6" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B93" s="39"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="6" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="B94" s="39"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="6" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="B95" s="39"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="6" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B96" s="39"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="B97" s="39"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="6" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="B98" s="39"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="6" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B99" s="39"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="6" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B100" s="39"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="6" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="B101" s="39"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="6" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B102" s="39"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="6" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B103" s="39"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="6" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="B104" s="39"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="6" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="B105" s="39"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="6" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B106" s="39"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="6" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="B107" s="39"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="6" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="B108" s="39"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="6" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B109" s="39"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="6" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="B110" s="39"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="6" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="B111" s="39"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="6" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="B112" s="39"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="6" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="B113" s="39"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="6" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B115" s="39"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="6" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="B116" s="39"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="6" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B117" s="39"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="6" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B118" s="39"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="6" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B119" s="39"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="6" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B120" s="39"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="6" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B121" s="39"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="6" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B122" s="39"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="6" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="B123" s="39"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="6" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B124" s="39"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="6" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="6" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B126" s="39"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="6" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="B127" s="39"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="6" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="B128" s="39"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="6" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B129" s="39"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="6" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B130" s="39"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="6" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B131" s="39"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="6" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B132" s="39"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="6" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="6" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="12" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="12" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="12" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="12" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="12" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="12" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B1" t="s">
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
@@ -7863,7 +7863,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
@@ -7871,7 +7871,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
@@ -7981,124 +7981,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="14"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="49" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -8128,7 +8128,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>670</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -8143,7 +8143,7 @@
       <c r="E13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8154,51 +8154,51 @@
       <c r="B14" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>203</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="24" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8216,132 +8216,132 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="79" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="13.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="79" style="14" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>813</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>587</v>
       </c>
     </row>
@@ -8368,33 +8368,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -8408,13 +8408,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -8469,27 +8469,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -8539,13 +8539,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>548</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -8586,13 +8586,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8645,13 +8645,13 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8704,13 +8704,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -8763,9 +8763,9 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -8818,9 +8818,9 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
         <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -8873,16 +8873,16 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15" t="s">
         <v>552</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -8935,9 +8935,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
         <v>553</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -8990,13 +8990,13 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9070,43 +9070,43 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="30" t="s">
+      <c r="G11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       <c r="R12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9177,46 +9177,46 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="30" t="s">
+      <c r="F13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9232,46 +9232,46 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="30" t="s">
+      <c r="F14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="S14" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9287,46 +9287,46 @@
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="30" t="s">
+      <c r="F15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="30" t="s">
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9342,40 +9342,40 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="30" t="s">
+      <c r="F16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -9436,7 +9436,7 @@
       <c r="R17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="30" t="s">
+      <c r="S17" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       <c r="B22" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>751</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -9765,10 +9765,10 @@
       <c r="Q23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="30" t="s">
+      <c r="R23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9820,10 +9820,10 @@
       <c r="Q24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R24" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="30" t="s">
+      <c r="R24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10105,11 +10105,11 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="102" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="46" t="s">
         <v>627</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -10212,7 +10212,7 @@
       <c r="R31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S31" s="30" t="s">
+      <c r="S31" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10222,10 +10222,10 @@
         <v>638</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="30" t="s">
+      <c r="D32" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -10267,7 +10267,7 @@
       <c r="R32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="30" t="s">
+      <c r="S32" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       <c r="B33" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>199</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -10315,16 +10315,16 @@
       <c r="O33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P33" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="30" t="s">
+      <c r="P33" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="30" t="s">
+      <c r="S33" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10447,7 +10447,7 @@
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -10474,22 +10474,22 @@
       <c r="M36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="O36" s="30" t="s">
+      <c r="N36" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="28" t="s">
         <v>17</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q36" s="30" t="s">
+      <c r="Q36" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S36" s="30" t="s">
+      <c r="S36" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10502,49 +10502,49 @@
       <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="30" t="s">
+      <c r="G37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="30" t="s">
+      <c r="K37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="28" t="s">
         <v>17</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="30" t="s">
+      <c r="O37" s="28" t="s">
         <v>17</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q37" s="30" t="s">
+      <c r="Q37" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S37" s="30" t="s">
+      <c r="S37" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10587,19 +10587,19 @@
       <c r="N38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O38" s="30" t="s">
+      <c r="O38" s="28" t="s">
         <v>17</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q38" s="30" t="s">
+      <c r="Q38" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S38" s="30" t="s">
+      <c r="S38" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10654,7 +10654,7 @@
       <c r="R39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S39" s="30" t="s">
+      <c r="S39" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10673,7 +10673,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="30"/>
+      <c r="S40" s="28"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -10690,7 +10690,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="30"/>
+      <c r="S41" s="28"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -10707,7 +10707,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="30"/>
+      <c r="S42" s="28"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -10724,7 +10724,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="30"/>
+      <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -11119,13 +11119,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -11133,13 +11133,13 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -11147,13 +11147,13 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -11161,9 +11161,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -11171,9 +11171,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
         <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -11181,34 +11181,34 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -11839,15 +11839,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12048,6 +12039,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12060,14 +12060,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12082,6 +12074,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,42 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5AF6DF-E7AA-A14D-AFDD-BACF0595CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C44919-3D8E-B24C-B358-E8123BD51481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="500" windowWidth="48440" windowHeight="27240" firstSheet="4" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="48440" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="17" r:id="rId2"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId5"/>
-    <sheet name="studyDesignArms" sheetId="14" r:id="rId6"/>
-    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId7"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId8"/>
-    <sheet name="adverseEventTimeline" sheetId="22" r:id="rId9"/>
-    <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId10"/>
-    <sheet name="vsBloodPressure" sheetId="24" r:id="rId11"/>
-    <sheet name="studyDesignTiming" sheetId="18" r:id="rId12"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId13"/>
-    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId14"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId15"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId22"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId23"/>
-    <sheet name="configuration" sheetId="10" r:id="rId24"/>
+    <sheet name="studyOrganizations" sheetId="3" r:id="rId3"/>
+    <sheet name="studyIdentifiers" sheetId="26" r:id="rId4"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId5"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId6"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId7"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId8"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
+    <sheet name="adverseEventTimeline" sheetId="22" r:id="rId10"/>
+    <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId11"/>
+    <sheet name="vsBloodPressure" sheetId="24" r:id="rId12"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId13"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId14"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId15"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId16"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId17"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId18"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId19"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId20"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId21"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId22"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId23"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId24"/>
+    <sheet name="configuration" sheetId="10" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="831">
   <si>
     <t>Screening</t>
   </si>
@@ -2569,6 +2570,12 @@
   </si>
   <si>
     <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>organization</t>
   </si>
 </sst>
 </file>
@@ -2798,13 +2805,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3355,6 +3362,743 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD109B-C71D-E046-8A81-67D6F53B97EB}">
+  <dimension ref="A1:V39"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+    </row>
+    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+    </row>
+    <row r="36" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="2"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="2"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -3780,7 +4524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -4100,7 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -4755,7 +5499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -5001,7 +5745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -5215,7 +5959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5278,7 +6022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -5353,7 +6097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -5765,11 +6509,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -5813,97 +6557,6 @@
       </c>
       <c r="J1" s="19" t="s">
         <v>828</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="24" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>747</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="29" t="s">
-        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -5976,6 +6629,97 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="24" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="29" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -6286,7 +7030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -6430,7 +7174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -6564,7 +7308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -7835,7 +8579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7889,7 +8633,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7909,10 +8653,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>34</v>
@@ -7926,13 +8670,13 @@
         <v>129</v>
       </c>
       <c r="C2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>669</v>
@@ -7946,13 +8690,13 @@
         <v>521</v>
       </c>
       <c r="C3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" t="s">
         <v>522</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>523</v>
-      </c>
-      <c r="E3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7965,6 +8709,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D47DAE-5894-A547-918C-F75A0245F891}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -7984,120 +8775,120 @@
       <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8189,16 +8980,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8206,7 +8997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -8350,7 +9141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB09339-52DA-2A44-9E81-01CB7197E815}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -8452,7 +9243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740737DA-2EE9-3B48-882B-C915DB285C6C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -8557,7 +9348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V68"/>
   <sheetViews>
@@ -11101,744 +11892,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD109B-C71D-E046-8A81-67D6F53B97EB}">
-  <dimension ref="A1:V39"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="15" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-    </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-    </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-    </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="2"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-    </row>
-    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-    </row>
-    <row r="36" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="2"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="2"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12039,15 +12102,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12060,6 +12114,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12074,14 +12136,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C44919-3D8E-B24C-B358-E8123BD51481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB91DC-2F42-4A48-A108-0B9A41DE4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="500" windowWidth="48440" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51740" yWindow="500" windowWidth="48440" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="832">
   <si>
     <t>Screening</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>trialIntentTypes</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>interventionModel</t>
@@ -2576,6 +2573,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -2670,7 +2673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2806,12 +2809,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3130,7 +3127,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3146,10 +3143,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -3159,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -3169,7 +3166,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -3179,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -3189,74 +3186,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="12"/>
       <c r="E12" s="39"/>
@@ -3264,20 +3261,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -3288,71 +3285,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="40" t="s">
+      <c r="E16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="G16" s="40" t="s">
         <v>497</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="C17" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>500</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>501</v>
-      </c>
-      <c r="E17" t="s">
-        <v>502</v>
       </c>
       <c r="F17" s="41">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" t="s">
         <v>503</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>504</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>505</v>
-      </c>
-      <c r="E18" t="s">
-        <v>506</v>
       </c>
       <c r="F18" s="41">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -3380,27 +3377,27 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -3408,57 +3405,57 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -3469,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3478,7 +3475,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -4117,27 +4114,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -4145,57 +4142,57 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4206,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4222,10 +4219,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -4267,7 +4264,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -4276,7 +4273,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -4286,7 +4283,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -4296,7 +4293,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -4306,7 +4303,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -4316,7 +4313,7 @@
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -4326,7 +4323,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -4336,7 +4333,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -4346,7 +4343,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -4356,10 +4353,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -4542,119 +4539,119 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>714</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4665,16 +4662,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -4683,10 +4680,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -4695,10 +4692,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -4707,10 +4704,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4864,632 +4861,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>528</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="F19" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -5518,19 +5515,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>631</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5545,7 +5542,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5558,18 +5555,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5584,40 +5581,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C14" t="s">
         <v>633</v>
-      </c>
-      <c r="C14" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5627,12 +5624,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5652,50 +5649,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5705,39 +5702,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C36" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -5779,179 +5776,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>767</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>776</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B2" t="s">
         <v>778</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>779</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>780</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>781</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>782</v>
+      </c>
+      <c r="H2" t="s">
         <v>821</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>782</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>783</v>
       </c>
-      <c r="H2" t="s">
-        <v>822</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>784</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>785</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>786</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>787</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>788</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>789</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>790</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>516</v>
+      </c>
+      <c r="R2" t="s">
         <v>791</v>
       </c>
-      <c r="Q2" t="s">
-        <v>517</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="48" t="s">
         <v>792</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B3" t="s">
         <v>794</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>795</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>781</v>
+      </c>
+      <c r="G3" t="s">
+        <v>782</v>
+      </c>
+      <c r="H3" t="s">
+        <v>822</v>
+      </c>
+      <c r="I3" t="s">
+        <v>783</v>
+      </c>
+      <c r="J3" t="s">
         <v>796</v>
       </c>
-      <c r="D3" t="s">
-        <v>781</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>782</v>
-      </c>
-      <c r="G3" t="s">
-        <v>783</v>
-      </c>
-      <c r="H3" t="s">
-        <v>823</v>
-      </c>
-      <c r="I3" t="s">
-        <v>784</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>797</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>798</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>787</v>
+      </c>
+      <c r="N3" t="s">
+        <v>788</v>
+      </c>
+      <c r="O3" t="s">
+        <v>789</v>
+      </c>
+      <c r="P3" t="s">
         <v>799</v>
       </c>
-      <c r="M3" t="s">
-        <v>788</v>
-      </c>
-      <c r="N3" t="s">
-        <v>789</v>
-      </c>
-      <c r="O3" t="s">
-        <v>790</v>
-      </c>
-      <c r="P3" t="s">
-        <v>800</v>
-      </c>
       <c r="Q3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R3" t="s">
+        <v>791</v>
+      </c>
+      <c r="S3" s="48" t="s">
         <v>792</v>
-      </c>
-      <c r="S3" s="48" t="s">
-        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -5976,44 +5973,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2" t="s">
         <v>758</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C3" t="s">
         <v>761</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="9" t="s">
         <v>762</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -6044,39 +6041,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>803</v>
-      </c>
       <c r="G1" s="20" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -6085,10 +6082,10 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6122,65 +6119,65 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -6189,15 +6186,15 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="14"/>
       <c r="F3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -6205,26 +6202,26 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -6233,14 +6230,14 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="14"/>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -6249,17 +6246,17 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="14"/>
       <c r="F6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -6267,28 +6264,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -6296,15 +6293,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -6312,14 +6309,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -6529,34 +6526,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -6585,22 +6582,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="43" t="s">
         <v>514</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6608,19 +6605,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>519</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -6650,67 +6647,67 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>195</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -6741,286 +6738,286 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>630</v>
-      </c>
       <c r="G1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7049,27 +7046,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -7078,94 +7075,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="E8" s="45" t="s">
         <v>188</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7194,113 +7191,113 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>589</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" t="s">
         <v>591</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>592</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>593</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>594</v>
       </c>
-      <c r="F2" t="s">
-        <v>595</v>
-      </c>
       <c r="G2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F3" t="s">
         <v>594</v>
       </c>
-      <c r="F3" t="s">
-        <v>595</v>
-      </c>
       <c r="G3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
+        <v>810</v>
+      </c>
+      <c r="E4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" t="s">
         <v>811</v>
-      </c>
-      <c r="E4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F4" t="s">
-        <v>595</v>
-      </c>
-      <c r="G4" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F5" t="s">
         <v>594</v>
       </c>
-      <c r="F5" t="s">
-        <v>595</v>
-      </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" t="s">
         <v>689</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>690</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>691</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F6" t="s">
         <v>692</v>
       </c>
-      <c r="E6" t="s">
-        <v>565</v>
-      </c>
-      <c r="F6" t="s">
-        <v>693</v>
-      </c>
       <c r="G6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -7326,1251 +7323,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>491</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="37"/>
       <c r="C32" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B60" s="37"/>
       <c r="C60" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B61" s="37"/>
       <c r="C61" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B62" s="37"/>
       <c r="C62" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B63" s="37"/>
       <c r="C63" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B64" s="37"/>
       <c r="C64" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B65" s="37"/>
       <c r="C65" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B66" s="37"/>
       <c r="C66" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B67" s="37"/>
       <c r="C67" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B68" s="37"/>
       <c r="C68" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B69" s="37"/>
       <c r="C69" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B70" s="37"/>
       <c r="C70" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B73" s="37"/>
       <c r="C73" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B75" s="37"/>
       <c r="C75" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B76" s="37"/>
       <c r="C76" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B77" s="37"/>
       <c r="C77" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B78" s="37"/>
       <c r="C78" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B81" s="37"/>
       <c r="C81" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B82" s="37"/>
       <c r="C82" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B83" s="37"/>
       <c r="C83" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B84" s="37"/>
       <c r="C84" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B85" s="37"/>
       <c r="C85" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B95" s="37"/>
       <c r="C95" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B96" s="37"/>
       <c r="C96" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B99" s="37"/>
       <c r="C99" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B100" s="37"/>
       <c r="C100" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B101" s="37"/>
       <c r="C101" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B102" s="37"/>
       <c r="C102" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B103" s="37"/>
       <c r="C103" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B104" s="37"/>
       <c r="C104" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B106" s="37"/>
       <c r="C106" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B107" s="37"/>
       <c r="C107" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B112" s="37"/>
       <c r="C112" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B113" s="37"/>
       <c r="C113" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B115" s="37"/>
       <c r="C115" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B116" s="37"/>
       <c r="C116" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B117" s="37"/>
       <c r="C117" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B118" s="37"/>
       <c r="C118" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B119" s="37"/>
       <c r="C119" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B120" s="37"/>
       <c r="C120" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B121" s="37"/>
       <c r="C121" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B122" s="37"/>
       <c r="C122" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B123" s="37"/>
       <c r="C123" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B124" s="37"/>
       <c r="C124" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B125" s="37"/>
       <c r="C125" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B126" s="37"/>
       <c r="C126" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B127" s="37"/>
       <c r="C127" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B128" s="37"/>
       <c r="C128" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B129" s="37"/>
       <c r="C129" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B130" s="37"/>
       <c r="C130" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B131" s="37"/>
       <c r="C131" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B132" s="37"/>
       <c r="C132" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B133" s="37"/>
       <c r="C133" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -8592,34 +8589,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8653,13 +8650,13 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8667,36 +8664,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" t="s">
         <v>520</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" t="s">
         <v>521</v>
       </c>
-      <c r="C3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>522</v>
-      </c>
-      <c r="E3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8712,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D47DAE-5894-A547-918C-F75A0245F891}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8727,23 +8724,23 @@
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8757,10 +8754,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8773,10 +8770,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>121</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -8785,211 +8782,248 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>123</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>815</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="49" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>681</v>
+      <c r="A7" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>680</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
+      <c r="A8" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>78</v>
+      <c r="A9" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="12"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>711</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="F15" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D17" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E17" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="F17" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>187</v>
+      <c r="D18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
+  <mergeCells count="13">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9018,122 +9052,122 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F1" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>580</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>586</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>698</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>702</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>708</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>812</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>826</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>814</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -9160,82 +9194,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>613</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -9261,86 +9295,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -9378,72 +9412,72 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -9496,185 +9530,185 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="R5" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -9683,101 +9717,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="P8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -9788,7 +9822,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9904,7 +9938,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -10014,7 +10048,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -10069,7 +10103,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -10234,7 +10268,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -10289,7 +10323,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -10344,7 +10378,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -10399,7 +10433,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -10454,10 +10488,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -10511,7 +10545,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -10566,7 +10600,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -10676,7 +10710,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -10731,10 +10765,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10901,7 +10935,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10955,7 +10989,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -11010,7 +11044,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="28" t="s">
@@ -11065,10 +11099,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -11122,7 +11156,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11177,7 +11211,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -11232,7 +11266,7 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -11287,7 +11321,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -11342,7 +11376,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -11397,7 +11431,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -11893,12 +11927,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12103,20 +12139,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12141,18 +12184,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB91DC-2F42-4A48-A108-0B9A41DE4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F468AE9-9FC9-7C46-8CE7-CA1BD785FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51740" yWindow="500" windowWidth="48440" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51740" yWindow="500" windowWidth="48440" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="833">
   <si>
     <t>Screening</t>
   </si>
@@ -2579,6 +2579,9 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
   </si>
 </sst>
 </file>
@@ -6564,59 +6567,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>832</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>756</v>
       </c>
     </row>
@@ -8756,7 +8773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -11927,14 +11944,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12139,27 +12154,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12184,9 +12192,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F468AE9-9FC9-7C46-8CE7-CA1BD785FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8661B8E-D86F-C043-A14C-D7E9A9A04A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51740" yWindow="500" windowWidth="48440" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="7" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2554,12 +2554,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>Age Criteria 2</t>
   </si>
   <si>
@@ -2582,6 +2576,12 @@
   </si>
   <si>
     <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -6101,8 +6101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6169,7 +6169,7 @@
         <v>605</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>47</v>
@@ -6214,7 +6214,7 @@
         <v>607</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>59</v>
@@ -6277,7 +6277,7 @@
         <v>606</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>190</v>
@@ -6538,7 +6538,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>52</v>
@@ -6556,7 +6556,7 @@
         <v>50</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -6569,7 +6569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -8684,7 +8684,7 @@
         <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D2" t="s">
         <v>127</v>
@@ -8741,7 +8741,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8749,7 +8749,7 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8859,7 +8859,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>680</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -9175,7 +9175,7 @@
         <v>812</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>584</v>
@@ -11953,6 +11953,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12153,17 +12164,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
@@ -12173,6 +12173,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12189,21 +12206,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/path_error.xlsx
+++ b/tests/integration_test_files/path_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8661B8E-D86F-C043-A14C-D7E9A9A04A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9315C3-8EC7-5848-9A24-BCBFA42896CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="7" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>SPONSOR =   12</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
     <t>mainTimeline</t>
   </si>
   <si>
@@ -1628,9 +1625,6 @@
   </si>
   <si>
     <t>ClinicalTrials.gov</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
   </si>
   <si>
     <t>NCT12345678</t>
@@ -2582,6 +2576,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -3146,10 +3146,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -3159,7 +3159,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -3169,7 +3169,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -3189,7 +3189,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -3199,7 +3199,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -3209,7 +3209,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -3219,7 +3219,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -3229,7 +3229,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
@@ -3239,7 +3239,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -3249,7 +3249,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -3267,7 +3267,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3288,71 +3288,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>496</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="C17" t="s">
         <v>498</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>499</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>500</v>
-      </c>
-      <c r="E17" t="s">
-        <v>501</v>
       </c>
       <c r="F17" s="41">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="C18" t="s">
         <v>502</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>503</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>504</v>
-      </c>
-      <c r="E18" t="s">
-        <v>505</v>
       </c>
       <c r="F18" s="41">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -3380,24 +3380,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>36</v>
@@ -3408,16 +3408,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -3427,38 +3427,38 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -3469,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -4117,24 +4117,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>36</v>
@@ -4145,16 +4145,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4164,38 +4164,38 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4222,10 +4222,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -4267,7 +4267,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -4276,7 +4276,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -4286,7 +4286,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -4296,7 +4296,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -4306,7 +4306,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -4316,7 +4316,7 @@
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -4326,7 +4326,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -4336,7 +4336,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -4346,7 +4346,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -4356,10 +4356,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -4542,33 +4542,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>36</v>
@@ -4577,25 +4577,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4605,56 +4605,56 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4665,16 +4665,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -4683,10 +4683,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -4695,10 +4695,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -4707,10 +4707,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4864,632 +4864,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>526</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -5518,19 +5518,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5545,7 +5545,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5558,18 +5558,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5584,40 +5584,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5627,12 +5627,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5652,50 +5652,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5705,39 +5705,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C34" t="s">
         <v>734</v>
-      </c>
-      <c r="C34" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C36" t="s">
         <v>735</v>
-      </c>
-      <c r="C36" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -5779,179 +5779,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>767</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>774</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2" t="s">
         <v>777</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>778</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>779</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>780</v>
       </c>
-      <c r="E2" t="s">
-        <v>820</v>
-      </c>
-      <c r="F2" s="47" t="s">
+      <c r="H2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I2" t="s">
         <v>781</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>782</v>
       </c>
-      <c r="H2" t="s">
-        <v>821</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>783</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>784</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>785</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>786</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>787</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>788</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>515</v>
+      </c>
+      <c r="R2" t="s">
         <v>789</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="48" t="s">
         <v>790</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>516</v>
-      </c>
-      <c r="R2" t="s">
-        <v>791</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C3" t="s">
         <v>793</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="G3" t="s">
+        <v>780</v>
+      </c>
+      <c r="H3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I3" t="s">
+        <v>781</v>
+      </c>
+      <c r="J3" t="s">
         <v>794</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>795</v>
       </c>
-      <c r="D3" t="s">
-        <v>780</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>781</v>
-      </c>
-      <c r="G3" t="s">
-        <v>782</v>
-      </c>
-      <c r="H3" t="s">
-        <v>822</v>
-      </c>
-      <c r="I3" t="s">
-        <v>783</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>796</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>785</v>
+      </c>
+      <c r="N3" t="s">
+        <v>786</v>
+      </c>
+      <c r="O3" t="s">
+        <v>787</v>
+      </c>
+      <c r="P3" t="s">
         <v>797</v>
       </c>
-      <c r="L3" t="s">
-        <v>798</v>
-      </c>
-      <c r="M3" t="s">
-        <v>787</v>
-      </c>
-      <c r="N3" t="s">
-        <v>788</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>515</v>
+      </c>
+      <c r="R3" t="s">
         <v>789</v>
       </c>
-      <c r="P3" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>516</v>
-      </c>
-      <c r="R3" t="s">
-        <v>791</v>
-      </c>
       <c r="S3" s="48" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -5976,13 +5976,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>37</v>
@@ -5993,27 +5993,27 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>757</v>
-      </c>
-      <c r="C2" t="s">
-        <v>758</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>760</v>
-      </c>
-      <c r="C3" t="s">
-        <v>761</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -6044,25 +6044,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>39</v>
@@ -6070,13 +6070,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -6085,7 +6085,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>40</v>
@@ -6101,7 +6101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -6122,34 +6122,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>598</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>600</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>599</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>601</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>44</v>
@@ -6162,21 +6162,21 @@
         <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="12" t="s">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="12" t="s">
@@ -6208,13 +6208,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>59</v>
@@ -6236,7 +6236,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="12" t="s">
@@ -6252,10 +6252,10 @@
         <v>61</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="12" t="s">
@@ -6267,24 +6267,24 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="12" t="s">
@@ -6296,11 +6296,11 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="12" t="s">
@@ -6312,10 +6312,10 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="12" t="s">
@@ -6538,7 +6538,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>52</v>
@@ -6556,7 +6556,7 @@
         <v>50</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -6585,36 +6585,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="43" t="s">
         <v>513</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -6622,19 +6622,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>518</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -6664,67 +6664,67 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -6755,286 +6755,286 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7063,27 +7063,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -7092,94 +7092,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="E8" s="45" t="s">
         <v>187</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7208,87 +7208,87 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D2" t="s">
         <v>590</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>591</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>592</v>
       </c>
-      <c r="E2" t="s">
-        <v>593</v>
-      </c>
-      <c r="F2" t="s">
-        <v>594</v>
-      </c>
       <c r="G2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -7296,25 +7296,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" t="s">
         <v>688</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>689</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" t="s">
         <v>690</v>
       </c>
-      <c r="D6" t="s">
-        <v>691</v>
-      </c>
-      <c r="E6" t="s">
-        <v>564</v>
-      </c>
-      <c r="F6" t="s">
-        <v>692</v>
-      </c>
       <c r="G6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -7340,1251 +7340,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>490</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" s="37"/>
       <c r="C32" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B60" s="37"/>
       <c r="C60" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B61" s="37"/>
       <c r="C61" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B62" s="37"/>
       <c r="C62" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B63" s="37"/>
       <c r="C63" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B64" s="37"/>
       <c r="C64" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" s="37"/>
       <c r="C65" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B66" s="37"/>
       <c r="C66" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B67" s="37"/>
       <c r="C67" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B68" s="37"/>
       <c r="C68" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B69" s="37"/>
       <c r="C69" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B70" s="37"/>
       <c r="C70" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B73" s="37"/>
       <c r="C73" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B75" s="37"/>
       <c r="C75" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B76" s="37"/>
       <c r="C76" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B77" s="37"/>
       <c r="C77" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B78" s="37"/>
       <c r="C78" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B81" s="37"/>
       <c r="C81" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B82" s="37"/>
       <c r="C82" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B83" s="37"/>
       <c r="C83" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B84" s="37"/>
       <c r="C84" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B85" s="37"/>
       <c r="C85" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B95" s="37"/>
       <c r="C95" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B96" s="37"/>
       <c r="C96" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B99" s="37"/>
       <c r="C99" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B100" s="37"/>
       <c r="C100" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B101" s="37"/>
       <c r="C101" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B102" s="37"/>
       <c r="C102" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B103" s="37"/>
       <c r="C103" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B104" s="37"/>
       <c r="C104" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B106" s="37"/>
       <c r="C106" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B107" s="37"/>
       <c r="C107" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B112" s="37"/>
       <c r="C112" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B113" s="37"/>
       <c r="C113" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B115" s="37"/>
       <c r="C115" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B116" s="37"/>
       <c r="C116" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B117" s="37"/>
       <c r="C117" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B118" s="37"/>
       <c r="C118" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B119" s="37"/>
       <c r="C119" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B120" s="37"/>
       <c r="C120" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B121" s="37"/>
       <c r="C121" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B122" s="37"/>
       <c r="C122" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B123" s="37"/>
       <c r="C123" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B124" s="37"/>
       <c r="C124" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B125" s="37"/>
       <c r="C125" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B126" s="37"/>
       <c r="C126" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B127" s="37"/>
       <c r="C127" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B128" s="37"/>
       <c r="C128" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B129" s="37"/>
       <c r="C129" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B130" s="37"/>
       <c r="C130" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B131" s="37"/>
       <c r="C131" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B132" s="37"/>
       <c r="C132" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B133" s="37"/>
       <c r="C133" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -8625,7 +8625,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8633,7 +8633,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -8646,8 +8646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A054F5-5F55-D04A-9603-B97FC15141C8}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8667,7 +8667,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>25</v>
@@ -8681,36 +8681,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>831</v>
       </c>
       <c r="F2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
         <v>519</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" t="s">
         <v>520</v>
       </c>
-      <c r="C3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D3" t="s">
-        <v>521</v>
-      </c>
       <c r="E3" t="s">
-        <v>522</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8741,23 +8741,23 @@
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8787,10 +8787,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>120</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -8799,10 +8799,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -8814,7 +8814,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -8826,7 +8826,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
@@ -8838,7 +8838,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -8850,7 +8850,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
@@ -8859,10 +8859,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -8883,10 +8883,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -8895,10 +8895,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -8922,7 +8922,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -8948,82 +8948,82 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -9069,122 +9069,122 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="D2" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>697</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>701</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>706</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -9211,82 +9211,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -9312,13 +9312,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>35</v>
@@ -9326,72 +9326,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -9429,69 +9429,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>36</v>
@@ -9547,61 +9547,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -9611,121 +9611,121 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>625</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -9734,101 +9734,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="P8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -9839,7 +9839,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9955,7 +9955,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -10065,7 +10065,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -10120,7 +10120,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -10285,7 +10285,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -10340,7 +10340,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -10395,7 +10395,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -10450,7 +10450,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -10505,10 +10505,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -10562,7 +10562,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -10617,7 +10617,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -10727,7 +10727,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -10782,10 +10782,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -11006,7 +11006,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -11061,7 +11061,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="28" t="s">
@@ -11116,10 +11116,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -11173,7 +11173,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11228,7 +11228,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -11283,7 +11283,7 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -11338,7 +11338,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -11393,7 +11393,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -11448,7 +11448,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -11953,17 +11953,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12164,6 +12153,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
@@ -12173,23 +12173,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12206,4 +12189,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>